--- a/ConfigTable/xlsxs/spaces.xlsx
+++ b/ConfigTable/xlsxs/spaces.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58725D9-2A55-4828-8683-1057EC57A360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3795" windowWidth="1980" windowHeight="13620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@场景表" sheetId="1" r:id="rId1"/>
     <sheet name="代对表=" sheetId="3" r:id="rId2"/>
     <sheet name="各字段说明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -338,7 +339,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -391,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -405,9 +406,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,14 +415,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,7 +523,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -832,51 +836,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14" style="5" customWidth="1"/>
     <col min="2" max="2" width="30.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="77.25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="35.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23.375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="6"/>
+    <col min="5" max="5" width="17.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="77.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="35.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.375" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -899,22 +903,22 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -922,7 +926,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -934,10 +938,10 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -945,7 +949,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -957,10 +961,10 @@
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -968,7 +972,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -980,18 +984,18 @@
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1003,18 +1007,18 @@
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1026,21 +1030,21 @@
       <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1049,13 +1053,13 @@
       <c r="D9" s="2">
         <v>7</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1068,7 +1072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:B3"/>
   <sheetViews>
@@ -1103,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C7"/>
   <sheetViews>

--- a/ConfigTable/xlsxs/spaces.xlsx
+++ b/ConfigTable/xlsxs/spaces.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58725D9-2A55-4828-8683-1057EC57A360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722644E9-9C06-49B2-8610-0CBE842D2DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,12 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>771.5861, 211.0021, 776.5501</t>
-  </si>
-  <si>
-    <t>-97.9299, 1.5, -158.922</t>
-  </si>
-  <si>
     <t>0, 1.5, 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,21 +236,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新手村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用于OGRE演示demo用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kbengine_ogre_demo</t>
-  </si>
-  <si>
     <t>演示一个副本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,34 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kbengine_unity3d_demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kbengine_cocos2d_js_demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>演示一个2D的html5项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108,0,90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spaces/xinshoucun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spaces/kbengine_ogre_demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spaces/kbengine_unity3d_demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spaces/teleportspace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,19 +256,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spaces/kbengine_cocos2d_js_demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>演示Unreal engine4项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单的unity3D演示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于Warring项目演示用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -392,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -429,6 +372,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,10 +784,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -887,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -907,10 +853,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -921,42 +867,42 @@
       <c r="F3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>50</v>
+      <c r="G3" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>46</v>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
@@ -965,103 +911,14 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>60</v>
-      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D17" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ConfigTable/xlsxs/spaces.xlsx
+++ b/ConfigTable/xlsxs/spaces.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722644E9-9C06-49B2-8610-0CBE842D2DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE49883-F8CA-4279-8224-A680FA571835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,7 +274,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>kbengine_ue4_demo</t>
+      <t>main</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -787,7 +787,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -852,11 +852,11 @@
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -865,56 +865,56 @@
         <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.15">

--- a/ConfigTable/xlsxs/spaces.xlsx
+++ b/ConfigTable/xlsxs/spaces.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE49883-F8CA-4279-8224-A680FA571835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE56475-8B22-4069-A785-54BC7932B73C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,9 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-97.9299, 0, -158.922</t>
-  </si>
-  <si>
     <t>spawnPos[.][funcTupleFloat]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,6 +273,10 @@
       </rPr>
       <t>main</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 0, 100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -375,6 +376,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,7 +791,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -818,7 +822,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>27</v>
@@ -833,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -853,10 +857,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -864,11 +868,11 @@
       <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>34</v>
+      <c r="F3" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -879,7 +883,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -888,10 +892,10 @@
         <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -902,7 +906,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -911,10 +915,10 @@
         <v>32</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.15">

--- a/ConfigTable/xlsxs/spaces.xlsx
+++ b/ConfigTable/xlsxs/spaces.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE56475-8B22-4069-A785-54BC7932B73C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A23ED5-C68D-44FB-8DFA-EF4F31184BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,10 +273,6 @@
       </rPr>
       <t>main</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100, 0, 100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,7 +787,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -869,7 +865,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>44</v>
